--- a/s.xlsx
+++ b/s.xlsx
@@ -406,7 +406,7 @@
         <v>Пн</v>
       </c>
       <c r="E2" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>mathematical_analysis, Chrerkashin</v>
+        <v>мат.анализ, Черкашин</v>
       </c>
     </row>
     <row r="4">
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>mathematical_analysis, Chrerkashin</v>
+        <v>мат.анализ, Черкашин</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="str">
-        <v>literature, Oblender</v>
+        <v>литература, Облендер</v>
       </c>
     </row>
     <row r="6">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="str">
-        <v>literature, Oblender</v>
+        <v>литература, Облендер</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="str">
-        <v>english, Lipinskaya</v>
+        <v>англ.яз, Липинская</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="str">
-        <v>english, Lipinskaya</v>
+        <v>англ.яз, Липинская</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="str">
-        <v>russian, Oblender</v>
+        <v>русский, Облендер</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +555,7 @@
         <v>Вт</v>
       </c>
       <c r="E12" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="13">
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>algebra, Poretskiy</v>
+        <v>алгебра, Порецкий</v>
       </c>
     </row>
     <row r="14">
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>algebra, Poretskiy</v>
+        <v>алгебра, Порецкий</v>
       </c>
     </row>
     <row r="15">
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="str">
-        <v>informatics, Valtman</v>
+        <v>информатика, Вальтман</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="str">
-        <v>informatics, Valtman</v>
+        <v>информатика, Вальтман</v>
       </c>
     </row>
     <row r="17">
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="str">
-        <v>history, Nanobashvilly</v>
+        <v>история, Нанобашвилли</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="str">
-        <v>history, Nanobashvilly</v>
+        <v>история, Нанобашвилли</v>
       </c>
     </row>
     <row r="19">
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="str">
-        <v>biology, Solovyova</v>
+        <v>биология, Соловьёва</v>
       </c>
     </row>
     <row r="20">
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="str">
-        <v>biology, Solovyova</v>
+        <v>биология, Соловьёва</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>Ср</v>
       </c>
       <c r="E22" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="23">
@@ -737,6 +737,9 @@
       <c r="D24">
         <v>2</v>
       </c>
+      <c r="E24" t="str">
+        <v>эксп.физика, Шатров</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <v>physics, Firdman</v>
+        <v>физика, Фирдман</v>
       </c>
     </row>
     <row r="26">
@@ -769,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="E26" t="str">
-        <v>physics, Firdman</v>
+        <v>физика, Фирдман</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="str">
-        <v>geometry, Strukov</v>
+        <v>геометрия, Струков</v>
       </c>
     </row>
     <row r="28">
@@ -803,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="str">
-        <v>geometry, Strukov</v>
+        <v>геометрия, Струков</v>
       </c>
     </row>
     <row r="29">
@@ -820,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="str">
-        <v>literature, Oblender</v>
+        <v>литература, Облендер</v>
       </c>
     </row>
     <row r="30">
@@ -837,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="str">
-        <v>russian, Oblender</v>
+        <v>русский, Облендер</v>
       </c>
     </row>
     <row r="31">
@@ -853,7 +856,7 @@
         <v>Чт</v>
       </c>
       <c r="E32" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="33">
@@ -870,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>maths, Chrerkashin</v>
+        <v>математика, Черкашин</v>
       </c>
     </row>
     <row r="34">
@@ -887,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <v>maths, Chrerkashin</v>
+        <v>математика, Черкашин</v>
       </c>
     </row>
     <row r="35">
@@ -904,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>geography, Spitskaya</v>
+        <v>география, Спицкая</v>
       </c>
     </row>
     <row r="36">
@@ -921,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="str">
-        <v>geography, Spitskaya</v>
+        <v>география, Спицкая</v>
       </c>
     </row>
     <row r="37">
@@ -938,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="str">
-        <v>history, Nanobashvilly</v>
+        <v>история, Нанобашвилли</v>
       </c>
     </row>
     <row r="38">
@@ -955,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="str">
-        <v>history, Nanobashvilly</v>
+        <v>история, Нанобашвилли</v>
       </c>
     </row>
     <row r="39">
@@ -972,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="str">
-        <v>PE, Remnev</v>
+        <v>физкультура, Ремнёв</v>
       </c>
     </row>
     <row r="40">
@@ -989,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="str">
-        <v>PE, Remnev</v>
+        <v>физкультура, Ремнёв</v>
       </c>
     </row>
     <row r="41">
@@ -1005,7 +1008,7 @@
         <v>Пт</v>
       </c>
       <c r="E42" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="43">
@@ -1036,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <v>physics, Firdman</v>
+        <v>физика, Фирдман</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <v>physics, Firdman</v>
+        <v>физика, Фирдман</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="str">
-        <v>maths_oge, Galaktionova</v>
+        <v>мат.ОГЭ, Галактионова</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="E47" t="str">
-        <v>maths_oge, Galaktionova</v>
+        <v>мат.ОГЭ, Галактионова</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="str">
-        <v>chemistry, Kudelina</v>
+        <v>химия, Куделина</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="str">
-        <v>russian, Oblender</v>
+        <v>русский, Облендер</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="str">
-        <v>english, Lipinskaya</v>
+        <v>англ.яз, Липинская</v>
       </c>
     </row>
     <row r="51">
@@ -1154,7 +1157,7 @@
         <v>Сб</v>
       </c>
       <c r="E52" t="str">
-        <v>9m</v>
+        <v>9м</v>
       </c>
     </row>
     <row r="53">
@@ -1171,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="str">
-        <v>chemistry, Kudelina</v>
+        <v>химия, Куделина</v>
       </c>
     </row>
     <row r="54">
@@ -1188,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <v>experimental_physics, Shatrov</v>
+        <v>эксп.физика, Шатров</v>
       </c>
     </row>
     <row r="55">
@@ -1217,9 +1220,6 @@
       </c>
       <c r="D56">
         <v>4</v>
-      </c>
-      <c r="E56" t="str">
-        <v>experimental_physics, Shatrov</v>
       </c>
     </row>
     <row r="57">

--- a/s.xlsx
+++ b/s.xlsx
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <v>эксп.физика, Шатров</v>
+        <v>англ.яз, Липинская</v>
       </c>
     </row>
     <row r="25">
@@ -906,9 +906,6 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" t="str">
-        <v>география, Спицкая</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -923,9 +920,6 @@
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" t="str">
-        <v>география, Спицкая</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -974,9 +968,6 @@
       <c r="D39">
         <v>7</v>
       </c>
-      <c r="E39" t="str">
-        <v>физкультура, Ремнёв</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -991,9 +982,6 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40" t="str">
-        <v>физкультура, Ремнёв</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1072,9 +1060,6 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="str">
-        <v>мат.ОГЭ, Галактионова</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1089,9 +1074,6 @@
       <c r="D47">
         <v>5</v>
       </c>
-      <c r="E47" t="str">
-        <v>мат.ОГЭ, Галактионова</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1106,9 +1088,6 @@
       <c r="D48">
         <v>6</v>
       </c>
-      <c r="E48" t="str">
-        <v>химия, Куделина</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1140,9 +1119,6 @@
       <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" t="str">
-        <v>англ.яз, Липинская</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1173,9 +1149,6 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" t="str">
-        <v>химия, Куделина</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1189,9 +1162,6 @@
       </c>
       <c r="D54">
         <v>2</v>
-      </c>
-      <c r="E54" t="str">
-        <v>эксп.физика, Шатров</v>
       </c>
     </row>
     <row r="55">

--- a/s.xlsx
+++ b/s.xlsx
@@ -406,6 +406,42 @@
         <v>Пн</v>
       </c>
       <c r="E2" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="G2" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="I2" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="K2" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="M2" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="O2" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Пн</v>
+      </c>
+      <c r="Q2" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -423,6 +459,42 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
+        <v>мат.анализ, Демидович</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>мат.анализ, Демидович</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <v>история, Нанобашвилли</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <v>геометрия, Пичугина</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
         <v>мат.анализ, Черкашин</v>
       </c>
     </row>
@@ -440,6 +512,42 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
+        <v>физика, Шейнман</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>мат.анализ, Демидович</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="str">
+        <v>история, Нанобашвилли</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="str">
+        <v>геометрия, Пичугина</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="str">
         <v>мат.анализ, Черкашин</v>
       </c>
     </row>
@@ -457,6 +565,42 @@
         <v>3</v>
       </c>
       <c r="E5" t="str">
+        <v>физика, Шейнман</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <v>мат.кружок, Туманова</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="str">
+        <v>мат.кружок, Пичугина</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="str">
+        <v>физика, Фирдман</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="str">
         <v>литература, Облендер</v>
       </c>
     </row>
@@ -474,6 +618,42 @@
         <v>4</v>
       </c>
       <c r="E6" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>мат.кружок, Туманова</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="str">
+        <v>мат.кружок, Пичугина</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="str">
         <v>литература, Облендер</v>
       </c>
     </row>
@@ -491,6 +671,42 @@
         <v>5</v>
       </c>
       <c r="E7" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <v>обществознание, Тишунин</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="str">
+        <v>литература, Облендер</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="str">
+        <v>алгебра, Нордскова</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="str">
         <v>англ.яз, Липинская</v>
       </c>
     </row>
@@ -508,6 +724,42 @@
         <v>6</v>
       </c>
       <c r="E8" t="str">
+        <v>обществознание, Тишунин</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="str">
+        <v>обществознание, Тишунин</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="str">
+        <v>литература, Облендер</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="str">
+        <v>англ.яз., Мелконян</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="str">
+        <v>алгебра, Нордскова</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="str">
         <v>англ.яз, Липинская</v>
       </c>
     </row>
@@ -525,6 +777,42 @@
         <v>7</v>
       </c>
       <c r="E9" t="str">
+        <v>обществознание, Тишунин</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="str">
+        <v>физика-ЕГЭ, Артамонова</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="str">
+        <v>семинар, Артамонова</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="str">
+        <v>обществознание, Тишунин</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="str">
         <v>русский, Облендер</v>
       </c>
     </row>
@@ -541,6 +829,39 @@
       <c r="D10">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <v>физика-ЕГЭ, Артамонова</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="str">
+        <v>семинар, Артамонова</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>физика, Фирдман</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -555,6 +876,42 @@
         <v>Вт</v>
       </c>
       <c r="E12" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="G12" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="I12" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="K12" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="M12" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="O12" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Вт</v>
+      </c>
+      <c r="Q12" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -572,6 +929,42 @@
         <v>1</v>
       </c>
       <c r="E13" t="str">
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>математика-ЕГЭ, Демидович</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="str">
+        <v>англ.яз., Мелконян</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="str">
+        <v>литература, Прадун</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="str">
         <v>алгебра, Порецкий</v>
       </c>
     </row>
@@ -589,7 +982,43 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <v>алгебра, Порецкий</v>
+        <v>история, Тишунин</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <v>математика-ЕГЭ, Демидович</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="str">
+        <v>география, Битюкова</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>англ.яз, Липинская</v>
       </c>
     </row>
     <row r="15">
@@ -606,7 +1035,43 @@
         <v>3</v>
       </c>
       <c r="E15" t="str">
-        <v>информатика, Вальтман</v>
+        <v>география, Спицкая</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>история, Тишунин</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>алгебра, Порецкий</v>
       </c>
     </row>
     <row r="16">
@@ -623,6 +1088,42 @@
         <v>4</v>
       </c>
       <c r="E16" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="str">
+        <v>физика-ЕГЭ, Артамонова</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="str">
+        <v>литература, Кузнецова</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" t="str">
+        <v>русский, Лужбинина</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="str">
+        <v>англ.яз., Мелконян</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="str">
         <v>информатика, Вальтман</v>
       </c>
     </row>
@@ -640,7 +1141,40 @@
         <v>5</v>
       </c>
       <c r="E17" t="str">
+        <v>информатика, Вальтман</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="str">
+        <v>физика-ЕГЭ, Артамонова</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="str">
+        <v>семинар, Артамонова</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="str">
         <v>история, Нанобашвилли</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>литература, Облендер</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +1191,37 @@
         <v>6</v>
       </c>
       <c r="E18" t="str">
-        <v>история, Нанобашвилли</v>
+        <v>информатика, Вальтман</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="str">
+        <v>литература, Облендер</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="str">
+        <v>семинар, Артамонова</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>русский, Облендер</v>
       </c>
     </row>
     <row r="19">
@@ -674,7 +1238,43 @@
         <v>7</v>
       </c>
       <c r="E19" t="str">
-        <v>биология, Соловьёва</v>
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="str">
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>информатика, Вальтман</v>
       </c>
     </row>
     <row r="20">
@@ -691,6 +1291,42 @@
         <v>8</v>
       </c>
       <c r="E20" t="str">
+        <v>эксп.физика, Мостовых</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="str">
         <v>биология, Соловьёва</v>
       </c>
     </row>
@@ -707,6 +1343,42 @@
         <v>Ср</v>
       </c>
       <c r="E22" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="G22" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="I22" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="K22" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="M22" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="O22" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Ср</v>
+      </c>
+      <c r="Q22" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -723,6 +1395,42 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>геометрия, Черкашин</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>история, Соколов</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="str">
+        <v>геометрия, Пичугина</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>география, Спицкая</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -737,8 +1445,41 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="str">
-        <v>англ.яз, Липинская</v>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>геометрия, Черкашин</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="str">
+        <v>история, Соколов</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="str">
+        <v>география, Спицкая</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="str">
+        <v>эксп.физика, Студзинский</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>география, Спицкая</v>
       </c>
     </row>
     <row r="25">
@@ -755,7 +1496,43 @@
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <v>физика, Фирдман</v>
+        <v>литература, Прадун</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <v>литература, Облендер</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="str">
+        <v>русский, Анисимова</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="str">
+        <v>технология, Зархидзе</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="str">
+        <v>литература, Прадун</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>русский, Облендер</v>
       </c>
     </row>
     <row r="26">
@@ -772,6 +1549,42 @@
         <v>4</v>
       </c>
       <c r="E26" t="str">
+        <v>литература, Прадун</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="str">
+        <v>литература, Облендер</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="str">
+        <v>русский, Анисимова</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" t="str">
+        <v>технология, Зархидзе</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="str">
+        <v>русский, Прадун</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="str">
         <v>физика, Фирдман</v>
       </c>
     </row>
@@ -789,7 +1602,43 @@
         <v>5</v>
       </c>
       <c r="E27" t="str">
-        <v>геометрия, Струков</v>
+        <v>мат.анализ, Демидович</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <v>математика-ЕГЭ, Демидович</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="str">
+        <v>история, Соколов</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="str">
+        <v>алгебра, Шубинская</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="str">
+        <v>эксп.физика, Студзинский</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>физика, Фирдман</v>
       </c>
     </row>
     <row r="28">
@@ -806,6 +1655,42 @@
         <v>6</v>
       </c>
       <c r="E28" t="str">
+        <v>геометрия, Косовский</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="str">
+        <v>математика-ЕГЭ, Демидович</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28" t="str">
+        <v>история, Соколов</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28" t="str">
+        <v>алгебра, Шубинская</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28" t="str">
+        <v>математика, Геравкер</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="str">
         <v>геометрия, Струков</v>
       </c>
     </row>
@@ -823,7 +1708,40 @@
         <v>7</v>
       </c>
       <c r="E29" t="str">
-        <v>литература, Облендер</v>
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29" t="str">
+        <v>физика, Михайлова</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>геометрия, Струков</v>
       </c>
     </row>
     <row r="30">
@@ -840,7 +1758,40 @@
         <v>8</v>
       </c>
       <c r="E30" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="str">
         <v>русский, Облендер</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+      <c r="O30" t="str">
+        <v>физика, Михайлова</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>физкультура, Ремнёв</v>
       </c>
     </row>
     <row r="31">
@@ -856,6 +1807,42 @@
         <v>Чт</v>
       </c>
       <c r="E32" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="G32" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="I32" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="K32" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="M32" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="O32" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P32" t="str">
+        <v>Чт</v>
+      </c>
+      <c r="Q32" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -873,6 +1860,39 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
+        <v>литература, Прадун</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <v>геометрия, Черкашин</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <v>русский, Лужбинина</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="str">
+        <v>русский, Прадун</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="str">
         <v>математика, Черкашин</v>
       </c>
     </row>
@@ -890,6 +1910,36 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
+        <v>русский, Прадун</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="str">
+        <v>русский, Лужбинина</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="str">
+        <v>русский, Прадун</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="str">
         <v>математика, Черкашин</v>
       </c>
     </row>
@@ -906,6 +1956,36 @@
       <c r="D35">
         <v>3</v>
       </c>
+      <c r="E35" t="str">
+        <v>русский, Прадун</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="str">
+        <v>искусство, Казакова</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="str">
+        <v>искусство, Казакова</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" t="str">
+        <v>англ.яз., Мелконян</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -920,6 +2000,30 @@
       <c r="D36">
         <v>4</v>
       </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="str">
+        <v>искусство, Казакова</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" t="str">
+        <v>алгебра, Шубинская</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -935,6 +2039,39 @@
         <v>5</v>
       </c>
       <c r="E37" t="str">
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="str">
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37" t="str">
+        <v>алгебра, Шубинская</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="str">
+        <v>англ.яз, Макарова</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="str">
         <v>история, Нанобашвилли</v>
       </c>
     </row>
@@ -951,7 +2088,34 @@
       <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" t="str">
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="str">
+        <v>англ.яз., Макарова</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38" t="str">
+        <v>математика, Пичугина</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="str">
+        <v>англ.яз, Макарова</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="str">
         <v>история, Нанобашвилли</v>
       </c>
     </row>
@@ -968,6 +2132,36 @@
       <c r="D39">
         <v>7</v>
       </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39" t="str">
+        <v>русский, Анисимова</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39" t="str">
+        <v>доп.физика, Кшевецкий</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>физкультура, Ремнёв</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -982,6 +2176,27 @@
       <c r="D40">
         <v>8</v>
       </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40" t="str">
+        <v>доп.физика, Кшевецкий</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -996,6 +2211,42 @@
         <v>Пт</v>
       </c>
       <c r="E42" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="G42" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="I42" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="K42" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="M42" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="O42" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P42" t="str">
+        <v>Пт</v>
+      </c>
+      <c r="Q42" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -1012,6 +2263,39 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="E43" t="str">
+        <v>алгебра, Теслер</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <v>русский, Облендер</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <v>физика, Михайлова</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="str">
+        <v>информатика, Разумова</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>химия, Куделина</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1027,6 +2311,33 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
+        <v>физика, Шейнман</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="str">
+        <v>информатика, Разумова</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="str">
         <v>физика, Фирдман</v>
       </c>
     </row>
@@ -1044,7 +2355,34 @@
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <v>физика, Фирдман</v>
+        <v>физика, Шейнман</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="str">
+        <v>англ.яз, Липинская</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="str">
+        <v>химия, Куделина</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>химия, Куделина</v>
       </c>
     </row>
     <row r="46">
@@ -1060,6 +2398,36 @@
       <c r="D46">
         <v>4</v>
       </c>
+      <c r="E46" t="str">
+        <v>алгебра, Теслер</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46" t="str">
+        <v>физика, Михайлова</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="str">
+        <v>англ.яз, Макарова</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>мат.ОГЭ, Галактионова</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1074,6 +2442,33 @@
       <c r="D47">
         <v>5</v>
       </c>
+      <c r="E47" t="str">
+        <v>матпросвет, Теслер</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="str">
+        <v>химия, Куделина</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>история, Нанобашвилли</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1088,6 +2483,27 @@
       <c r="D48">
         <v>6</v>
       </c>
+      <c r="E48" t="str">
+        <v>химия, Куделина</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1103,7 +2519,31 @@
         <v>7</v>
       </c>
       <c r="E49" t="str">
-        <v>русский, Облендер</v>
+        <v>химия, Куделина</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="str">
+        <v>физика, Артамонова</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" t="str">
+        <v>русский, Анисимова</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1119,6 +2559,27 @@
       <c r="D50">
         <v>8</v>
       </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="str">
+        <v>физика, Артамонова</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1133,6 +2594,42 @@
         <v>Сб</v>
       </c>
       <c r="E52" t="str">
+        <v>10м</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="G52" t="str">
+        <v>11м</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="I52" t="str">
+        <v>5мл</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="K52" t="str">
+        <v>6мл</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="M52" t="str">
+        <v>7мл</v>
+      </c>
+      <c r="N52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="O52" t="str">
+        <v>8м</v>
+      </c>
+      <c r="P52" t="str">
+        <v>Сб</v>
+      </c>
+      <c r="Q52" t="str">
         <v>9м</v>
       </c>
     </row>
@@ -1149,6 +2646,33 @@
       <c r="D53">
         <v>1</v>
       </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
+        <v>мат.кружок, Солынин</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="str">
+        <v>математика, Сотников</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>эксп.физика, Шатров</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1163,6 +2687,42 @@
       <c r="D54">
         <v>2</v>
       </c>
+      <c r="E54" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <v>информатика, Демидов</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="str">
+        <v>математика, Сотников</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>эксп.физика, Шатров</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1177,6 +2737,39 @@
       <c r="D55">
         <v>3</v>
       </c>
+      <c r="E55" t="str">
+        <v>биология, Битюкова</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55" t="str">
+        <v>информатика, Демидов</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="str">
+        <v>математика, Зачиняев</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55" t="str">
+        <v>мат.кружок, Солынин</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="str">
+        <v>алгебра, Антипов</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1191,6 +2784,30 @@
       <c r="D56">
         <v>4</v>
       </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="str">
+        <v>математика, Николаев</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56" t="str">
+        <v>алгебра, Антипов</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1205,6 +2822,27 @@
       <c r="D57">
         <v>5</v>
       </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="str">
+        <v>математика, Николаев</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1219,6 +2857,24 @@
       <c r="D58">
         <v>6</v>
       </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>6</v>
+      </c>
+      <c r="P58">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1233,6 +2889,27 @@
       <c r="D59">
         <v>7</v>
       </c>
+      <c r="E59" t="str">
+        <v>геометрия, Косовский</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1245,6 +2922,24 @@
         <v>15:30</v>
       </c>
       <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>8</v>
+      </c>
+      <c r="P60">
         <v>8</v>
       </c>
     </row>
